--- a/AbatementProject/InputDisplacement/Data/V1/CES_ALL.xlsx
+++ b/AbatementProject/InputDisplacement/Data/V1/CES_ALL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="mu" sheetId="1" r:id="rId1"/>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +739,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +914,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
